--- a/panjer_recursion.xlsx
+++ b/panjer_recursion.xlsx
@@ -1,100 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xaverwangerpohl/Programmieren/PycharmProjects/Bachelor/app/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6389CE-5039-C34F-831F-6B4EA3379A1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="B(100,0.1)NB(10,0.3)tr" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>Number of claims</t>
-  </si>
-  <si>
-    <t>Ammount per claim</t>
-  </si>
-  <si>
-    <t>Probability of ruin</t>
-  </si>
-  <si>
-    <t>Binomial</t>
-  </si>
-  <si>
-    <t>Distribution Number</t>
-  </si>
-  <si>
-    <t>Input:</t>
-  </si>
-  <si>
-    <t>N-Bin</t>
-  </si>
-  <si>
-    <t>1st parameter</t>
-  </si>
-  <si>
-    <t>Poisson</t>
-  </si>
-  <si>
-    <t>2nd parameter</t>
-  </si>
-  <si>
-    <t>Logarithmic</t>
-  </si>
-  <si>
-    <t>Scaling factor</t>
-  </si>
-  <si>
-    <t>No entry here</t>
-  </si>
-  <si>
-    <t>Geometric</t>
-  </si>
-  <si>
-    <t>Truncation (0 or 1)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF009682"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00009682"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,17 +71,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill>
@@ -145,7 +109,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill>
@@ -170,70 +134,229 @@
         </vertical>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB2DFD9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="Kit Tabelle" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Kit Tabelle" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Kit Tabelle" pivot="0" count="3">
+      <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="firstColumn" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="Tabellenformat 1" pivot="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}"/>
-    <tableStyle name="Tabellenformat 2" pivot="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}"/>
+    <tableStyle name="Tabellenformat 1" pivot="0" count="0"/>
+    <tableStyle name="Tabellenformat 2" pivot="0" count="0"/>
   </tableStyles>
-  <colors>
-    <mruColors>
-      <color rgb="FF009682"/>
-    </mruColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors/>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Total Claims Distribution</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'B(100,0.1)NB(10,0.3)tr'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="triangle"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="009682"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="009682"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'B(100,0.1)NB(10,0.3)tr'!$A$2:$A$94</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'B(100,0.1)NB(10,0.3)tr'!$B$2:$B$94</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>P(S=n)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:B6" totalsRowShown="0">
-  <autoFilter ref="A1:B6" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle3" displayName="Tabelle3" ref="A1:B6" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:B6">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Number"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Distribution"/>
+    <tableColumn id="1" name="Number"/>
+    <tableColumn id="2" name="Distribution"/>
   </tableColumns>
-  <tableStyleInfo name="Kit Tabelle" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
+  <tableStyleInfo name="Tabellenformat 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle7" displayName="Tabelle7" ref="D1:F6" totalsRowShown="0">
-  <autoFilter ref="D1:F6" xr:uid="{00000000-0009-0000-0100-000002000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle7" displayName="Tabelle7" ref="D1:F6" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="D1:F6">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="  "/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Number of claims"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Ammount per claim"/>
+    <tableColumn id="1" name="  "/>
+    <tableColumn id="2" name="Number of claims"/>
+    <tableColumn id="3" name="Ammount per claim"/>
   </tableColumns>
   <tableStyleInfo name="Kit Tabelle" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle1" displayName="Tabelle1" ref="H1:I2" totalsRowShown="0">
-  <autoFilter ref="H1:I2" xr:uid="{00000000-0009-0000-0100-000003000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle1" displayName="Tabelle1" ref="H1:I2" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="H1:I2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="  "/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Probability of ruin"/>
+    <tableColumn id="1" name="  "/>
+    <tableColumn id="2" name="Probability of Ruin"/>
   </tableColumns>
   <tableStyleInfo name="Kit Tabelle" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -523,136 +646,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.33203125" style="1" customWidth="1"/>
+    <col width="9.33203125" customWidth="1" style="1" min="1" max="1"/>
+    <col width="12.5" customWidth="1" style="1" min="2" max="2"/>
+    <col width="17" customWidth="1" style="1" min="4" max="4"/>
+    <col width="14.6640625" customWidth="1" style="1" min="5" max="5"/>
+    <col width="16.1640625" customWidth="1" style="1" min="6" max="6"/>
+    <col width="9.33203125" customWidth="1" style="1" min="7" max="7"/>
+    <col width="16.83203125" customWidth="1" style="1" min="8" max="8"/>
+    <col width="24.33203125" customWidth="1" style="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Number of claims</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Ammount per claim</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Probability of Ruin</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Binomial</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Distribution Number</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Input:</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>N-Bin</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1st parameter</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Poisson</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2nd parameter</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Logarithmic</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Scaling factor</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>No entry here</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Geometric</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Truncation (0 or 1)</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>0.1</v>
-      </c>
-      <c r="F4">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -664,4 +829,756 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>P(S=n)</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>1.0% Ruin #:</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Variance</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
+        <is>
+          <t>Cantelli</t>
+        </is>
+      </c>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Sc. Factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.656139888758754e-05</v>
+      </c>
+      <c r="K2" t="n">
+        <v>42</v>
+      </c>
+      <c r="L2" t="n">
+        <v>21.42857142857143</v>
+      </c>
+      <c r="M2" t="n">
+        <v>56.63265306122449</v>
+      </c>
+      <c r="N2" t="n">
+        <v>75</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.573679325690254e-05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.48099137979661e-05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9.560197900192809e-05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0001524340196812486</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0002314050829721479</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0003388458550484538</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0004809242683005138</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0006638553986587613</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0008940400939155467</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.00117794032388282</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.001521803655068473</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.001931371889197177</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.002411626980647737</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.002966570784053568</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.003599026054052652</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>8</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.004310457941884172</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.005100824960080224</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>9</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.005968469888011077</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.006910057768119969</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.007920564198123221</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.008993314288540106</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>11</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.01012007078289336</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.01129116832616228</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>12</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0124956894008965</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.01372167605227519</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>13</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.01495637034359334</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.01618647563973325</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>14</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.01739843034941333</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.01857868565494341</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>15</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.01971397898610664</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.02079159551212252</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>16</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.02179961068932652</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.02272710786511491</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>17</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.02356436604932975</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.02430301416853572</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>18</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.02493614936292743</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.02545841811956014</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>19</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0258660602143288</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.02615691652059276</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>20</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.02633040270417138</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.02638745164023383</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>21</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.02633042804296181</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.02616301928699803</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>22</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.0258901067208331</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.02551762193280989</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>23</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.0250523924418729</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.02450198116314891</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>24</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.02387452376144404</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.02317856767415812</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>25</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.0224229161801653</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.02161648043403502</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>26</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.0207681418958645</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.01988662708477821</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>27</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.01898039608567151</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.01805754575857633</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>28</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.01712572815014963</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.01619208419668703</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>29</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.01526319244466142</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.01434503220256758</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>30</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.01344296027908463</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.01256170025753225</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>31</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.01170534310387609</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.01087735780231987</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>32</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.01008061065489175</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.009317391864674503</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>33</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.008589448041197165</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.007898019315478328</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>34</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.007243879825702866</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.006627380427071272</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>35</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.006048492585803576</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.005506852532825245</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>36</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.005001804873005373</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.004532444967187013</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>37</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.004097659523435639</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.003696164948290935</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>38</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.003326543116247817</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.002987274314645456</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>39</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.00267676721052029</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.002393385765124839</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>40</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.002135473090451107</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.001901372300269542</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>41</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.001689444456211485</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.001498083747805266</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>42</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.001325730074803532</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/panjer_recursion.xlsx
+++ b/panjer_recursion.xlsx
@@ -1,100 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xaverwangerpohl/Programmieren/PycharmProjects/Bachelor/app/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6389CE-5039-C34F-831F-6B4EA3379A1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="B(100,0.1)NB(10,0.3)tr" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>Number of claims</t>
-  </si>
-  <si>
-    <t>Ammount per claim</t>
-  </si>
-  <si>
-    <t>Probability of ruin</t>
-  </si>
-  <si>
-    <t>Binomial</t>
-  </si>
-  <si>
-    <t>Distribution Number</t>
-  </si>
-  <si>
-    <t>Input:</t>
-  </si>
-  <si>
-    <t>N-Bin</t>
-  </si>
-  <si>
-    <t>1st parameter</t>
-  </si>
-  <si>
-    <t>Poisson</t>
-  </si>
-  <si>
-    <t>2nd parameter</t>
-  </si>
-  <si>
-    <t>Logarithmic</t>
-  </si>
-  <si>
-    <t>Scaling factor</t>
-  </si>
-  <si>
-    <t>No entry here</t>
-  </si>
-  <si>
-    <t>Geometric</t>
-  </si>
-  <si>
-    <t>Truncation (0 or 1)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF009682"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00009682"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,17 +71,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill>
@@ -145,7 +109,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill>
@@ -170,70 +134,296 @@
         </vertical>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB2DFD9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="Kit Tabelle" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Kit Tabelle" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Kit Tabelle" pivot="0" count="3">
+      <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="firstColumn" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="Tabellenformat 1" pivot="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}"/>
-    <tableStyle name="Tabellenformat 2" pivot="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}"/>
+    <tableStyle name="Tabellenformat 1" pivot="0" count="0"/>
+    <tableStyle name="Tabellenformat 2" pivot="0" count="0"/>
   </tableStyles>
   <colors>
-    <mruColors>
-      <color rgb="FF009682"/>
-    </mruColors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Total Claims Distribution</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'B(100,0.1)NB(10,0.3)tr'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="triangle"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="009682"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="009682"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'B(100,0.1)NB(10,0.3)tr'!$A$2:$A$94</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'B(100,0.1)NB(10,0.3)tr'!$B$2:$B$94</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>P(S=n)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:B6" totalsRowShown="0">
-  <autoFilter ref="A1:B6" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle3" displayName="Tabelle3" ref="A1:B6" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:B6">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Number"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Distribution"/>
+    <tableColumn id="1" name="Number"/>
+    <tableColumn id="2" name="Distribution"/>
   </tableColumns>
-  <tableStyleInfo name="Kit Tabelle" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
+  <tableStyleInfo name="Tabellenformat 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle7" displayName="Tabelle7" ref="D1:F6" totalsRowShown="0">
-  <autoFilter ref="D1:F6" xr:uid="{00000000-0009-0000-0100-000002000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle7" displayName="Tabelle7" ref="D1:F6" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="D1:F6">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="  "/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Number of claims"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Ammount per claim"/>
+    <tableColumn id="1" name="  "/>
+    <tableColumn id="2" name="Number of claims"/>
+    <tableColumn id="3" name="Ammount per claim"/>
   </tableColumns>
   <tableStyleInfo name="Kit Tabelle" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle1" displayName="Tabelle1" ref="H1:I2" totalsRowShown="0">
-  <autoFilter ref="H1:I2" xr:uid="{00000000-0009-0000-0100-000003000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle1" displayName="Tabelle1" ref="H1:I2" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="H1:I2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="  "/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Probability of ruin"/>
+    <tableColumn id="1" name="  "/>
+    <tableColumn id="2" name="Probability of Ruin"/>
   </tableColumns>
   <tableStyleInfo name="Kit Tabelle" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -523,136 +713,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.33203125" style="1" customWidth="1"/>
+    <col width="9.33203125" customWidth="1" style="1" min="1" max="1"/>
+    <col width="12.5" customWidth="1" style="1" min="2" max="2"/>
+    <col width="18" customWidth="1" style="1" min="4" max="4"/>
+    <col width="15.33203125" customWidth="1" style="1" min="5" max="5"/>
+    <col width="16.83203125" customWidth="1" style="1" min="6" max="6"/>
+    <col width="9.33203125" customWidth="1" style="1" min="7" max="7"/>
+    <col width="16.83203125" customWidth="1" style="1" min="8" max="8"/>
+    <col width="24.33203125" customWidth="1" style="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Number of claims</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Ammount per claim</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Probability of Ruin</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Binomial</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Distribution Number</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Input:</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>N-Bin</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1st parameter</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Poisson</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2nd parameter</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Logarithmic</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Scaling factor</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>No entry here</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Geometric</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Truncation (0 or 1)</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>0.1</v>
-      </c>
-      <c r="F4">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -664,4 +896,759 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="11" customWidth="1" style="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>P(S=n)</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>1.0% Ruin #</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Variance</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
+        <is>
+          <t>Cantelli</t>
+        </is>
+      </c>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Sc. Factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.656139888758754e-05</v>
+      </c>
+      <c r="K2" t="n">
+        <v>42</v>
+      </c>
+      <c r="L2" t="n">
+        <v>21.90612769149964</v>
+      </c>
+      <c r="M2" t="n">
+        <v>58.20541827265443</v>
+      </c>
+      <c r="N2" t="n">
+        <v>76</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.573679325690254e-05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.48099137979661e-05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9.560197900192809e-05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0001524340196812486</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0002314050829721479</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0003388458550484538</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0004809242683005138</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0006638553986587613</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0008940400939155467</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.00117794032388282</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.001521803655068473</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.001931371889197177</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.002411626980647737</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.002966570784053568</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.003599026054052652</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>8</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.004310457941884172</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.005100824960080224</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>9</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.005968469888011077</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.006910057768119969</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.007920564198123221</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.008993314288540106</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>11</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.01012007078289336</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.01129116832616228</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>12</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0124956894008965</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.01372167605227519</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>13</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.01495637034359334</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.01618647563973325</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>14</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.01739843034941333</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.01857868565494341</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>15</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.01971397898610664</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.02079159551212252</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>16</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.02179961068932652</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.02272710786511491</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>17</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.02356436604932975</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.02430301416853572</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>18</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.02493614936292743</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.02545841811956014</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>19</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0258660602143288</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.02615691652059276</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>20</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.02633040270417138</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.02638745164023383</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>21</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.02633042804296181</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.02616301928699803</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>22</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.0258901067208331</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.02551762193280989</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>23</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.0250523924418729</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.02450198116314891</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>24</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.02387452376144404</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.02317856767415812</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>25</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.0224229161801653</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.02161648043403502</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>26</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.0207681418958645</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.01988662708477821</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>27</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.01898039608567151</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.01805754575857633</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>28</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.01712572815014963</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.01619208419668703</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>29</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.01526319244466142</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.01434503220256758</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>30</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.01344296027908463</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.01256170025753225</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>31</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.01170534310387609</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.01087735780231987</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>32</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.01008061065489175</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.009317391864674503</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>33</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.008589448041197165</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.007898019315478328</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>34</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.007243879825702866</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.006627380427071272</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>35</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.006048492585803576</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.005506852532825245</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>36</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.005001804873005373</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.004532444967187013</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>37</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.004097659523435639</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.003696164948290935</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>38</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.003326543116247817</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.002987274314645456</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>39</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.00267676721052029</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.002393385765124839</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>40</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.002135473090451107</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.001901372300269542</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>41</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.001689444456211485</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.001498083747805266</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>42</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.001325730074803532</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>